--- a/data/a101_coordinates.xlsx
+++ b/data/a101_coordinates.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umutk\Documents\engineering_project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA35D08-5CCC-4E04-8EFF-CDDA6FBD1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,536 +27,533 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coordinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adalı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.927394883085235, 29.129755968898213]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adatepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.945790719761604, 29.158524608036142]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmet Kutsi Tecer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94697264869294, 29.108992595588575]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akarsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94320020106798, 29.14449386704606]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altayçeşme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93709684710951, 29.129451295588076]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atatürk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.932473517602, 29.13659263658489]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayerdem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93334053257737, 29.126336916594965]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.91748109292999, 29.150235387789607]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bağdat Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.91869123203214, 29.142348945765892]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bağlarbaşı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92390667555307, 29.135720080242788]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Başıbüyük</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.95806043821966, 29.147749778886645]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bülbül</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.945248349238604, 29.121603422571827]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Büyükbakkalköy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.97052190607659, 29.198820234230894]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camialtı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.958074773304325, 29.147542257606666]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93999089666084, 29.151950365579967]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Değirmenyolu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.95442013315046, 29.101123215161365]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doğuşkent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93947090004343, 29.139418992788137]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.91728899109436, 29.144277700000487]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efe Boz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93624733683455, 29.133488717904036]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elifli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93952567986965, 29.139381265431897]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ertuğrul Gazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.948470330387245, 29.1547878715784]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eski Bağdat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94702549200248, 29.109547693411244]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.97198499803409, 29.130256420815687]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92046478730853, 29.147404819387035]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92615799253096, 29.14552500589081]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.936578426258606, 29.14713455596701]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fındıklı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.971202286232355, 29.135924803001316]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.943493943193914, 29.14495179745375]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand House</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.923046846303116, 29.131475958484746]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gül</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.95218713357522, 29.10994516390435]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gülsuyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92764419655678, 29.15696404057653]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gülyolu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92485574587402, 29.14088192613519]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Güneşlik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.922768910478915, 29.168870251895438]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handegül</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94234542075043, 29.14945903212188]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanımeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93781973383071, 29.145038866751978]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heykel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.931897227392454, 29.16420758354888]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadir Has</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94368194803579, 29.117591299214254]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93654913833068, 29.14726759744085]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kavaklıbayır</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.96668135619129, 29.114802774304895]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kooperatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.928863160423774, 29.14173620789344]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Küçükyalı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93234703451013, 29.136646549836268]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kılavuzçayırı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.95238151964869, 29.10986665140849]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kırlangıç</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92722413852877, 29.133725080243018]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kırçiçeği</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.950434119475744, 29.127854717295303]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madenci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94032453090845, 29.14242820164443]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maltepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92862045414734, 29.134665477144317]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mavıevler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.946097556545276, 29.12880362390243]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menekşeci Darkstore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.97140661473956, 29.133924370173283]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.97143901739909, 29.134138946895533]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namık Kemal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93782327708093, 29.12133876675202]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nedim Özpolat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.91918156355658, 29.131472337914726]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nil Caddesı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94123489075919, 29.153956025232937]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nish Adalar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94683712314109, 29.16719959558862]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orhangazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.920479325615176, 29.14735552723237]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orkide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92358760959293, 29.14591311378964]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93233737572602, 29.164425964993736]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmiye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.97043908018438, 29.130019595590085]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piri Reis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.91708383018474, 29.143594824422983]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preveze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94865312002092, 29.12871766675268]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritim İstanbul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92122786710252, 29.157222156156422]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.919270134807334, 29.131550271622423]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saray Maltepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94276202024538, 29.114332385182973]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarmaşık</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.97197054979308, 29.130265509192995]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seyitağa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.96895696591541, 29.123756171008925]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seyrantepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94768409358067, 29.166132798526473]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulhi Dönmezer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.930277200380615, 29.133284555638674]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sırmakeş</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.9396458282932, 29.1528508161723]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talatpaşa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.9185783171644, 29.151399680297757]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.91718960109349, 29.14424450598503]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tülin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93491750586262, 29.148000761384083]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varna Maltepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93360061298113, 29.133128870889713]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeni Hancıoğlu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.97002274280754, 29.140095813262924]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeni Selvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.96915224060489, 29.127712327367597]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeni Selçukbey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.95041177110291, 29.127988561740242]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeşiltepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93976307558044, 29.11683454795809]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yüzevler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93410039239821, 29.12622891093225]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yıldırım</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92787699876612, 29.15715151412576]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zencefıl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.92719657520457, 29.16578829373469]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuhal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.91765828300148, 29.154259993734073]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zümrüt Evler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93969573233883, 29.117204716626933]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çamlı E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93965706296123, 29.133351893735465]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çağla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.947899653357794, 29.16649500612658]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çetin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.94873403528536, 29.108871445617062]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çınar Maltepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.947581725490295, 29.109043179708422]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Özmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.947855637118835, 29.108184945533097]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İdealtepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[40.93946988115979, 29.117319572778445]</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>Adalı</t>
+  </si>
+  <si>
+    <t>[40.927394883085235, 29.129755968898213]</t>
+  </si>
+  <si>
+    <t>Adatepe</t>
+  </si>
+  <si>
+    <t>[40.945790719761604, 29.158524608036142]</t>
+  </si>
+  <si>
+    <t>Ahmet Kutsi Tecer</t>
+  </si>
+  <si>
+    <t>[40.94697264869294, 29.108992595588575]</t>
+  </si>
+  <si>
+    <t>Akarsu</t>
+  </si>
+  <si>
+    <t>[40.94320020106798, 29.14449386704606]</t>
+  </si>
+  <si>
+    <t>Altayçeşme</t>
+  </si>
+  <si>
+    <t>[40.93709684710951, 29.129451295588076]</t>
+  </si>
+  <si>
+    <t>Atatürk</t>
+  </si>
+  <si>
+    <t>[40.932473517602, 29.13659263658489]</t>
+  </si>
+  <si>
+    <t>Ayerdem</t>
+  </si>
+  <si>
+    <t>[40.93334053257737, 29.126336916594965]</t>
+  </si>
+  <si>
+    <t>Ayhan</t>
+  </si>
+  <si>
+    <t>[40.91748109292999, 29.150235387789607]</t>
+  </si>
+  <si>
+    <t>Bağdat Park</t>
+  </si>
+  <si>
+    <t>[40.91869123203214, 29.142348945765892]</t>
+  </si>
+  <si>
+    <t>Bağlarbaşı</t>
+  </si>
+  <si>
+    <t>[40.92390667555307, 29.135720080242788]</t>
+  </si>
+  <si>
+    <t>Başıbüyük</t>
+  </si>
+  <si>
+    <t>[40.95806043821966, 29.147749778886645]</t>
+  </si>
+  <si>
+    <t>Bülbül</t>
+  </si>
+  <si>
+    <t>[40.945248349238604, 29.121603422571827]</t>
+  </si>
+  <si>
+    <t>Büyükbakkalköy</t>
+  </si>
+  <si>
+    <t>[40.97052190607659, 29.198820234230894]</t>
+  </si>
+  <si>
+    <t>Camialtı</t>
+  </si>
+  <si>
+    <t>[40.958074773304325, 29.147542257606666]</t>
+  </si>
+  <si>
+    <t>Canan</t>
+  </si>
+  <si>
+    <t>[40.93999089666084, 29.151950365579967]</t>
+  </si>
+  <si>
+    <t>Değirmenyolu</t>
+  </si>
+  <si>
+    <t>[40.95442013315046, 29.101123215161365]</t>
+  </si>
+  <si>
+    <t>Doğuşkent</t>
+  </si>
+  <si>
+    <t>[40.93947090004343, 29.139418992788137]</t>
+  </si>
+  <si>
+    <t>Dragos</t>
+  </si>
+  <si>
+    <t>[40.91728899109436, 29.144277700000487]</t>
+  </si>
+  <si>
+    <t>Efe Boz</t>
+  </si>
+  <si>
+    <t>[40.93624733683455, 29.133488717904036]</t>
+  </si>
+  <si>
+    <t>Elifli</t>
+  </si>
+  <si>
+    <t>[40.93952567986965, 29.139381265431897]</t>
+  </si>
+  <si>
+    <t>Ertuğrul Gazi</t>
+  </si>
+  <si>
+    <t>[40.948470330387245, 29.1547878715784]</t>
+  </si>
+  <si>
+    <t>Eski Bağdat</t>
+  </si>
+  <si>
+    <t>[40.94702549200248, 29.109547693411244]</t>
+  </si>
+  <si>
+    <t>Evren</t>
+  </si>
+  <si>
+    <t>[40.97198499803409, 29.130256420815687]</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>[40.92046478730853, 29.147404819387035]</t>
+  </si>
+  <si>
+    <t>Figen</t>
+  </si>
+  <si>
+    <t>[40.92615799253096, 29.14552500589081]</t>
+  </si>
+  <si>
+    <t>Filiz</t>
+  </si>
+  <si>
+    <t>[40.936578426258606, 29.14713455596701]</t>
+  </si>
+  <si>
+    <t>Fındıklı</t>
+  </si>
+  <si>
+    <t>[40.971202286232355, 29.135924803001316]</t>
+  </si>
+  <si>
+    <t>Girne</t>
+  </si>
+  <si>
+    <t>[40.943493943193914, 29.14495179745375]</t>
+  </si>
+  <si>
+    <t>Grand House</t>
+  </si>
+  <si>
+    <t>[40.923046846303116, 29.131475958484746]</t>
+  </si>
+  <si>
+    <t>Gül</t>
+  </si>
+  <si>
+    <t>[40.95218713357522, 29.10994516390435]</t>
+  </si>
+  <si>
+    <t>Gülsuyu</t>
+  </si>
+  <si>
+    <t>[40.92764419655678, 29.15696404057653]</t>
+  </si>
+  <si>
+    <t>Gülyolu</t>
+  </si>
+  <si>
+    <t>[40.92485574587402, 29.14088192613519]</t>
+  </si>
+  <si>
+    <t>Güneşlik</t>
+  </si>
+  <si>
+    <t>[40.922768910478915, 29.168870251895438]</t>
+  </si>
+  <si>
+    <t>Handegül</t>
+  </si>
+  <si>
+    <t>[40.94234542075043, 29.14945903212188]</t>
+  </si>
+  <si>
+    <t>Hanımeli</t>
+  </si>
+  <si>
+    <t>[40.93781973383071, 29.145038866751978]</t>
+  </si>
+  <si>
+    <t>Heykel</t>
+  </si>
+  <si>
+    <t>[40.931897227392454, 29.16420758354888]</t>
+  </si>
+  <si>
+    <t>Kadir Has</t>
+  </si>
+  <si>
+    <t>[40.94368194803579, 29.117591299214254]</t>
+  </si>
+  <si>
+    <t>Kartal</t>
+  </si>
+  <si>
+    <t>[40.93654913833068, 29.14726759744085]</t>
+  </si>
+  <si>
+    <t>Kavaklıbayır</t>
+  </si>
+  <si>
+    <t>[40.96668135619129, 29.114802774304895]</t>
+  </si>
+  <si>
+    <t>Kooperatif</t>
+  </si>
+  <si>
+    <t>[40.928863160423774, 29.14173620789344]</t>
+  </si>
+  <si>
+    <t>Küçükyalı</t>
+  </si>
+  <si>
+    <t>[40.93234703451013, 29.136646549836268]</t>
+  </si>
+  <si>
+    <t>Kılavuzçayırı</t>
+  </si>
+  <si>
+    <t>[40.95238151964869, 29.10986665140849]</t>
+  </si>
+  <si>
+    <t>Kırlangıç</t>
+  </si>
+  <si>
+    <t>[40.92722413852877, 29.133725080243018]</t>
+  </si>
+  <si>
+    <t>Kırçiçeği</t>
+  </si>
+  <si>
+    <t>[40.950434119475744, 29.127854717295303]</t>
+  </si>
+  <si>
+    <t>Madenci</t>
+  </si>
+  <si>
+    <t>[40.94032453090845, 29.14242820164443]</t>
+  </si>
+  <si>
+    <t>Maltepe</t>
+  </si>
+  <si>
+    <t>[40.92862045414734, 29.134665477144317]</t>
+  </si>
+  <si>
+    <t>Mavıevler</t>
+  </si>
+  <si>
+    <t>[40.946097556545276, 29.12880362390243]</t>
+  </si>
+  <si>
+    <t>Menekşeci Darkstore</t>
+  </si>
+  <si>
+    <t>[40.97140661473956, 29.133924370173283]</t>
+  </si>
+  <si>
+    <t>Mercan</t>
+  </si>
+  <si>
+    <t>[40.97143901739909, 29.134138946895533]</t>
+  </si>
+  <si>
+    <t>Namık Kemal</t>
+  </si>
+  <si>
+    <t>[40.93782327708093, 29.12133876675202]</t>
+  </si>
+  <si>
+    <t>Nedim Özpolat</t>
+  </si>
+  <si>
+    <t>[40.91918156355658, 29.131472337914726]</t>
+  </si>
+  <si>
+    <t>Nil Caddesı</t>
+  </si>
+  <si>
+    <t>[40.94123489075919, 29.153956025232937]</t>
+  </si>
+  <si>
+    <t>Nish Adalar</t>
+  </si>
+  <si>
+    <t>[40.94683712314109, 29.16719959558862]</t>
+  </si>
+  <si>
+    <t>Orhangazi</t>
+  </si>
+  <si>
+    <t>[40.920479325615176, 29.14735552723237]</t>
+  </si>
+  <si>
+    <t>Orkide</t>
+  </si>
+  <si>
+    <t>[40.92358760959293, 29.14591311378964]</t>
+  </si>
+  <si>
+    <t>Ortanca</t>
+  </si>
+  <si>
+    <t>[40.93233737572602, 29.164425964993736]</t>
+  </si>
+  <si>
+    <t>Palmiye</t>
+  </si>
+  <si>
+    <t>[40.97043908018438, 29.130019595590085]</t>
+  </si>
+  <si>
+    <t>Piri Reis</t>
+  </si>
+  <si>
+    <t>[40.91708383018474, 29.143594824422983]</t>
+  </si>
+  <si>
+    <t>Preveze</t>
+  </si>
+  <si>
+    <t>[40.94865312002092, 29.12871766675268]</t>
+  </si>
+  <si>
+    <t>Ritim İstanbul</t>
+  </si>
+  <si>
+    <t>[40.92122786710252, 29.157222156156422]</t>
+  </si>
+  <si>
+    <t>Sahil</t>
+  </si>
+  <si>
+    <t>[40.919270134807334, 29.131550271622423]</t>
+  </si>
+  <si>
+    <t>Saray Maltepe</t>
+  </si>
+  <si>
+    <t>[40.94276202024538, 29.114332385182973]</t>
+  </si>
+  <si>
+    <t>Sarmaşık</t>
+  </si>
+  <si>
+    <t>[40.97197054979308, 29.130265509192995]</t>
+  </si>
+  <si>
+    <t>Seyitağa</t>
+  </si>
+  <si>
+    <t>[40.96895696591541, 29.123756171008925]</t>
+  </si>
+  <si>
+    <t>Seyrantepe</t>
+  </si>
+  <si>
+    <t>[40.94768409358067, 29.166132798526473]</t>
+  </si>
+  <si>
+    <t>Sulhi Dönmezer</t>
+  </si>
+  <si>
+    <t>[40.930277200380615, 29.133284555638674]</t>
+  </si>
+  <si>
+    <t>Sırmakeş</t>
+  </si>
+  <si>
+    <t>[40.9396458282932, 29.1528508161723]</t>
+  </si>
+  <si>
+    <t>Talatpaşa</t>
+  </si>
+  <si>
+    <t>[40.9185783171644, 29.151399680297757]</t>
+  </si>
+  <si>
+    <t>Toros</t>
+  </si>
+  <si>
+    <t>[40.91718960109349, 29.14424450598503]</t>
+  </si>
+  <si>
+    <t>Tülin</t>
+  </si>
+  <si>
+    <t>[40.93491750586262, 29.148000761384083]</t>
+  </si>
+  <si>
+    <t>Varna Maltepe</t>
+  </si>
+  <si>
+    <t>[40.93360061298113, 29.133128870889713]</t>
+  </si>
+  <si>
+    <t>Yeni Hancıoğlu</t>
+  </si>
+  <si>
+    <t>[40.97002274280754, 29.140095813262924]</t>
+  </si>
+  <si>
+    <t>Yeni Selvi</t>
+  </si>
+  <si>
+    <t>[40.96915224060489, 29.127712327367597]</t>
+  </si>
+  <si>
+    <t>Yeni Selçukbey</t>
+  </si>
+  <si>
+    <t>[40.95041177110291, 29.127988561740242]</t>
+  </si>
+  <si>
+    <t>Yeşiltepe</t>
+  </si>
+  <si>
+    <t>[40.93976307558044, 29.11683454795809]</t>
+  </si>
+  <si>
+    <t>Yüzevler</t>
+  </si>
+  <si>
+    <t>[40.93410039239821, 29.12622891093225]</t>
+  </si>
+  <si>
+    <t>Yıldırım</t>
+  </si>
+  <si>
+    <t>[40.92787699876612, 29.15715151412576]</t>
+  </si>
+  <si>
+    <t>Zencefıl</t>
+  </si>
+  <si>
+    <t>[40.92719657520457, 29.16578829373469]</t>
+  </si>
+  <si>
+    <t>Zuhal</t>
+  </si>
+  <si>
+    <t>[40.91765828300148, 29.154259993734073]</t>
+  </si>
+  <si>
+    <t>Zümrüt Evler</t>
+  </si>
+  <si>
+    <t>[40.93969573233883, 29.117204716626933]</t>
+  </si>
+  <si>
+    <t>Çamlı E5</t>
+  </si>
+  <si>
+    <t>[40.93965706296123, 29.133351893735465]</t>
+  </si>
+  <si>
+    <t>Çağla</t>
+  </si>
+  <si>
+    <t>[40.947899653357794, 29.16649500612658]</t>
+  </si>
+  <si>
+    <t>Çetin</t>
+  </si>
+  <si>
+    <t>[40.94873403528536, 29.108871445617062]</t>
+  </si>
+  <si>
+    <t>Çınar Maltepe</t>
+  </si>
+  <si>
+    <t>[40.947581725490295, 29.109043179708422]</t>
+  </si>
+  <si>
+    <t>Özmen</t>
+  </si>
+  <si>
+    <t>[40.947855637118835, 29.108184945533097]</t>
+  </si>
+  <si>
+    <t>İdealtepe</t>
+  </si>
+  <si>
+    <t>[40.93946988115979, 29.117319572778445]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,25 +562,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -597,80 +583,55 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -729,47 +690,63 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -777,12 +754,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -811,7 +788,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -832,7 +809,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -883,7 +860,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -901,33 +878,32 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.07"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -936,8 +912,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -947,8 +923,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -958,8 +934,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -969,8 +945,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -980,8 +956,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -991,8 +967,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1002,8 +978,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1013,8 +989,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1024,8 +1000,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1035,8 +1011,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1046,8 +1022,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1057,8 +1033,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1068,8 +1044,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1079,8 +1055,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1090,8 +1066,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1101,8 +1077,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1112,8 +1088,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1123,8 +1099,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1134,8 +1110,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1145,8 +1121,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1156,8 +1132,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1167,8 +1143,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1178,8 +1154,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1189,8 +1165,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1200,8 +1176,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1211,8 +1187,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1222,8 +1198,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1233,8 +1209,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1244,8 +1220,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1255,8 +1231,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1266,8 +1242,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1277,8 +1253,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1288,8 +1264,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1299,8 +1275,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1310,8 +1286,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1321,8 +1297,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1332,8 +1308,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1343,8 +1319,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1354,8 +1330,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1365,8 +1341,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1376,8 +1352,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1387,8 +1363,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1398,8 +1374,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1409,8 +1385,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1420,8 +1396,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1431,8 +1407,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1442,8 +1418,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1453,8 +1429,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1464,8 +1440,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1475,8 +1451,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1486,8 +1462,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1497,8 +1473,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1508,8 +1484,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1519,8 +1495,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -1530,8 +1506,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1541,8 +1517,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1552,8 +1528,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1563,8 +1539,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1574,8 +1550,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -1585,8 +1561,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1596,8 +1572,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -1607,8 +1583,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1618,8 +1594,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -1629,8 +1605,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -1640,8 +1616,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -1651,8 +1627,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -1662,8 +1638,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -1673,8 +1649,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -1684,8 +1660,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -1695,8 +1671,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="n">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -1706,8 +1682,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -1717,8 +1693,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="n">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -1728,8 +1704,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="n">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -1739,8 +1715,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -1750,8 +1726,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="n">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -1761,8 +1737,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -1772,8 +1748,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -1783,8 +1759,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="n">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -1794,8 +1770,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="n">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -1805,8 +1781,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -1816,8 +1792,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -1827,8 +1803,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -1838,8 +1814,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -1849,8 +1825,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -1860,8 +1836,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -1871,8 +1847,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -1883,12 +1859,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>